--- a/SchedulingData/static2/pso/scheduling1_6.xlsx
+++ b/SchedulingData/static2/pso/scheduling1_6.xlsx
@@ -462,97 +462,97 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pond27</t>
+          <t>pond47</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>65.09999999999999</v>
+        <v>37.1</v>
       </c>
       <c r="E2" t="n">
-        <v>27.64</v>
+        <v>27.48</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>pond12</t>
+          <t>pond38</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>64.56</v>
+        <v>56.12</v>
       </c>
       <c r="E3" t="n">
-        <v>26.204</v>
+        <v>26.568</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pond51</t>
+          <t>pond21</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>56.12</v>
       </c>
       <c r="D4" t="n">
-        <v>62.86</v>
+        <v>109.02</v>
       </c>
       <c r="E4" t="n">
-        <v>26.864</v>
+        <v>22.908</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>pond9</t>
+          <t>pond2</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>86.90000000000001</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="E5" t="n">
-        <v>25.44</v>
+        <v>26.964</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>pond62</t>
+          <t>pond9</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>62.86</v>
+        <v>66.76000000000001</v>
       </c>
       <c r="D6" t="n">
-        <v>124.84</v>
+        <v>123.66</v>
       </c>
       <c r="E6" t="n">
-        <v>22.776</v>
+        <v>22.404</v>
       </c>
     </row>
     <row r="7">
@@ -561,17 +561,17 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>pond2</t>
+          <t>pond55</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>65.09999999999999</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>116.76</v>
+        <v>49.42</v>
       </c>
       <c r="E7" t="n">
-        <v>24.604</v>
+        <v>26.248</v>
       </c>
     </row>
     <row r="8">
@@ -580,188 +580,188 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>pond21</t>
+          <t>pond7</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>86.90000000000001</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>149.5</v>
+        <v>54.46</v>
       </c>
       <c r="E8" t="n">
-        <v>21.78</v>
+        <v>25.744</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>pond7</t>
+          <t>pond62</t>
         </is>
       </c>
       <c r="C9" t="n">
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>74.45999999999999</v>
+        <v>57.68</v>
       </c>
       <c r="E9" t="n">
-        <v>25.744</v>
+        <v>25.912</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>pond47</t>
+          <t>pond27</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>124.84</v>
+        <v>54.46</v>
       </c>
       <c r="D10" t="n">
-        <v>166.34</v>
+        <v>114.06</v>
       </c>
       <c r="E10" t="n">
-        <v>20.256</v>
+        <v>23.384</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>pond40</t>
+          <t>pond60</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>49.42</v>
       </c>
       <c r="D11" t="n">
-        <v>49.96</v>
+        <v>100.88</v>
       </c>
       <c r="E11" t="n">
-        <v>26.204</v>
+        <v>23.212</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>pond18</t>
+          <t>pond12</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>64.56</v>
+        <v>109.02</v>
       </c>
       <c r="D12" t="n">
-        <v>112.48</v>
+        <v>158.28</v>
       </c>
       <c r="E12" t="n">
-        <v>23.032</v>
+        <v>19.112</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>pond55</t>
+          <t>pond31</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>49.96</v>
+        <v>100.88</v>
       </c>
       <c r="D13" t="n">
-        <v>103.78</v>
+        <v>157.78</v>
       </c>
       <c r="E13" t="n">
-        <v>22.452</v>
+        <v>21.132</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pond31</t>
+          <t>pond14</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>149.5</v>
+        <v>57.68</v>
       </c>
       <c r="D14" t="n">
-        <v>186.5</v>
+        <v>119.88</v>
       </c>
       <c r="E14" t="n">
-        <v>19.7</v>
+        <v>22.832</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>pond38</t>
+          <t>pond40</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>103.78</v>
+        <v>37.1</v>
       </c>
       <c r="D15" t="n">
-        <v>154.4</v>
+        <v>86.36</v>
       </c>
       <c r="E15" t="n">
-        <v>19.02</v>
+        <v>23.684</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>pond60</t>
+          <t>pond51</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>112.48</v>
+        <v>114.06</v>
       </c>
       <c r="D16" t="n">
-        <v>179.04</v>
+        <v>161.82</v>
       </c>
       <c r="E16" t="n">
-        <v>19.996</v>
+        <v>20.248</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>pond14</t>
+          <t>pond18</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>116.76</v>
+        <v>123.66</v>
       </c>
       <c r="D17" t="n">
-        <v>173.56</v>
+        <v>166.68</v>
       </c>
       <c r="E17" t="n">
-        <v>21.524</v>
+        <v>19.232</v>
       </c>
     </row>
   </sheetData>
